--- a/biology/Zoologie/Bonnerichthys/Bonnerichthys.xlsx
+++ b/biology/Zoologie/Bonnerichthys/Bonnerichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonnerichthys gladius
-Bonnerichthys est un genre éteint de poissons marins de la famille des Pachycormidae dont les fossiles datent de la partie supérieure du Crétacé supérieur, il y a environ entre 85 et 66 Ma (millions d'années)[1].
+Bonnerichthys est un genre éteint de poissons marins de la famille des Pachycormidae dont les fossiles datent de la partie supérieure du Crétacé supérieur, il y a environ entre 85 et 66 Ma (millions d'années).
 La seule espèce connue est Bonnerichthys gladius, décrite par Edward Drinker Cope en 1873 sous le protonyme de Portheus gladius.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonnerichthys gladius mesurait 6 mètres de longueur. Ses proches parents sont Leedsichthys problematicus du Jurassique moyen et supérieur et Rhinconichthys de la base du Crétacé supérieur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonnerichthys gladius mesurait 6 mètres de longueur. Ses proches parents sont Leedsichthys problematicus du Jurassique moyen et supérieur et Rhinconichthys de la base du Crétacé supérieur.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrissait de plancton par filtration de l'eau de mer (microphagie suspensivore), une niche occupée aujourd'hui par certaines espèces de requins et de cétacés à fanons (mysticètes)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrissait de plancton par filtration de l'eau de mer (microphagie suspensivore), une niche occupée aujourd'hui par certaines espèces de requins et de cétacés à fanons (mysticètes).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Bonnerichthys est une combinaison basée sur Bonner, en l'honneur de la famille Bonner, de Scott City au Kansas, qui a fait de nombreuses découvertes dans la formation de Niobrara, suivi de -ichthys, dérivé du grec ancien ἰχθύς, ikhthús, « poisson »[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Bonnerichthys est une combinaison basée sur Bonner, en l'honneur de la famille Bonner, de Scott City au Kansas, qui a fait de nombreuses découvertes dans la formation de Niobrara, suivi de -ichthys, dérivé du grec ancien ἰχθύς, ikhthús, « poisson »
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Genre Bonnerichthys :
 (en) Matt Friedman, Kenshu Shimada, Larry D. Martin, Michael J. Everhart, Jeff Liston, Anthony Maltese et Michael Triebold, « 100-million-year dynasty of giant planktivorous bony fishes in the Mesozoic seas », Science, Amérique septentrionale, AAAS, vol. 327, no 5968,‎ 1er février 2010, p. 990-993 (ISSN 0036-8075 et 1095-9203, OCLC 1644869, PMID 20167784, DOI 10.1126/SCIENCE.1184743, lire en ligne)
